--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-bar-chart.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-bar-chart.xlsx
@@ -127,6 +127,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="4472C4"/>
@@ -180,6 +183,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Series 2</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ED7D31"/>

--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-bar-chart.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-bar-chart.xlsx
@@ -107,8 +107,16 @@
   <c:date1904 val="0"/>
   <c:roundedCorners val="0"/>
   <c:lang val="zh-CN"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -153,7 +161,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="sngStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
@@ -209,7 +217,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="sngStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
@@ -244,7 +252,7 @@
         <c:axId val="1004634784"/>
         <c:axPos val="b"/>
         <c:crossAx val="1004635264"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -264,7 +272,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="sngStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -283,7 +291,7 @@
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:crossAx val="1004634784"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -299,6 +307,9 @@
         <a:ln w="25400"/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>

--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-bar-chart.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-bar-chart.xlsx
@@ -115,6 +115,44 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:srgbClr val="BFBFBF"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525">
+      <a:solidFill>
+        <a:srgbClr val="BFBFBF"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </a:bodyPr>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -252,6 +290,7 @@
         <c:axId val="1004634784"/>
         <c:axPos val="b"/>
         <c:crossAx val="1004635264"/>
+        <c:crosses val="autoZero"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -260,7 +299,7 @@
           <a:noFill/>
           <a:ln w="19050">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:srgbClr val="404040"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -274,7 +313,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:srgbClr val="404040"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -285,12 +324,59 @@
           </a:p>
         </c:txPr>
         <c:scaling/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>X数据</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="404040"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:lblAlgn val="ctr"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1004635264"/>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:crossAx val="1004634784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -301,6 +387,50 @@
           </c:spPr>
         </c:majorGridlines>
         <c:scaling/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="404040"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Y数据</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="404040"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
       </c:valAx>
       <c:spPr>
         <a:noFill/>

--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-bar-chart.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/generated-bar-chart.xlsx
@@ -190,7 +190,9 @@
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
-              <a:ln/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -246,7 +248,9 @@
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
-              <a:ln/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -288,6 +292,7 @@
       </c:barChart>
       <c:catAx>
         <c:axId val="1004634784"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:crossAx val="1004635264"/>
         <c:crosses val="autoZero"/>
@@ -323,7 +328,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:scaling/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
         <c:title>
           <c:tx>
             <c:rich>
@@ -346,7 +353,9 @@
           </c:tx>
           <c:spPr>
             <a:noFill/>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -386,7 +395,9 @@
             <a:ln w="9525"/>
           </c:spPr>
         </c:majorGridlines>
-        <c:scaling/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
         <c:title>
           <c:tx>
             <c:rich>
@@ -409,7 +420,9 @@
           </c:tx>
           <c:spPr>
             <a:noFill/>
-            <a:ln/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -434,7 +447,9 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400"/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
